--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Week</t>
   </si>
@@ -114,12 +114,6 @@
     <t>Finish sketch of game play</t>
   </si>
   <si>
-    <t>Game play design</t>
-  </si>
-  <si>
-    <t>Set up software</t>
-  </si>
-  <si>
     <t>Ismini</t>
   </si>
   <si>
@@ -138,9 +132,6 @@
     <t>Decide on and set-up of software</t>
   </si>
   <si>
-    <t>Game design last changes and documentation</t>
-  </si>
-  <si>
     <t>Finish documentation + send</t>
   </si>
   <si>
@@ -177,13 +168,37 @@
     <t>Set goals and planning for this week (Design &amp; Software)</t>
   </si>
   <si>
-    <t>Software and GitHub running</t>
-  </si>
-  <si>
     <t>Set goals and planning for the week (Design &amp; Software)</t>
   </si>
   <si>
-    <t>David</t>
+    <t>Show static prototype and last changes on design</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Software overview pres and cons + final decision</t>
+  </si>
+  <si>
+    <t>Software platform running</t>
+  </si>
+  <si>
+    <t>David and Shuheng</t>
+  </si>
+  <si>
+    <t>Static prototype presentation</t>
+  </si>
+  <si>
+    <t>Software pres and cons overview</t>
+  </si>
+  <si>
+    <t>Decision on software platform</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Finish test accelerometer posibilities</t>
   </si>
 </sst>
 </file>
@@ -872,7 +887,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1124,6 +1139,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1426,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K55"/>
+  <dimension ref="B2:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
@@ -1527,7 +1545,7 @@
         <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H6" s="66"/>
       <c r="I6" s="62"/>
@@ -1540,7 +1558,7 @@
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="45"/>
@@ -1554,14 +1572,14 @@
       </c>
       <c r="C8" s="68"/>
       <c r="D8" s="55" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E8" s="55"/>
       <c r="F8" s="55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="57"/>
@@ -1572,213 +1590,213 @@
         <v>41964</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="13"/>
       <c r="C9" s="70"/>
-      <c r="D9" s="69" t="s">
-        <v>40</v>
+      <c r="D9" s="86" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="68"/>
       <c r="F9" s="81"/>
-      <c r="G9" s="69"/>
+      <c r="G9" s="69" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="66"/>
       <c r="I9" s="62"/>
       <c r="J9" s="67"/>
       <c r="K9" s="64"/>
     </row>
-    <row r="10" spans="2:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="31"/>
+    <row r="10" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
       <c r="C10" s="70"/>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="54"/>
-    </row>
-    <row r="11" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B11" s="78">
+      <c r="E10" s="68"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="64"/>
+    </row>
+    <row r="11" spans="2:11" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="31"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="50"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="54"/>
+    </row>
+    <row r="12" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B12" s="78">
         <v>48</v>
       </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="38"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="79" t="s">
+      <c r="C12" s="37"/>
+      <c r="D12" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="31"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="54"/>
+    </row>
+    <row r="14" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B14" s="78">
+        <v>49</v>
+      </c>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14" s="39"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="42">
+        <v>41978</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B15" s="9"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="64"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B16" s="31"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+    </row>
+    <row r="17" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B17" s="78">
+        <v>50</v>
+      </c>
+      <c r="C17" s="37"/>
+      <c r="D17" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="38"/>
+      <c r="F17" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="80"/>
-      <c r="K11" s="42"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="31"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="54"/>
-    </row>
-    <row r="13" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B13" s="78">
-        <v>49</v>
-      </c>
-      <c r="C13" s="37"/>
-      <c r="D13" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="71" t="s">
-        <v>43</v>
-      </c>
-      <c r="G13" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="42">
-        <v>41978</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="64"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="31"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54"/>
-    </row>
-    <row r="16" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B16" s="78">
+      <c r="G17" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="42">
+        <v>41984</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B18" s="9"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="64"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B19" s="31"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="54"/>
+    </row>
+    <row r="20" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B20" s="78">
+        <v>51</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="71" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16" s="42">
-        <v>41984</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="9"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="64"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="31"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="54"/>
-    </row>
-    <row r="19" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B19" s="78">
-        <v>51</v>
-      </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="38"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="80" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K20" s="42">
         <v>41992</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="31"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="54"/>
-    </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="5">
-        <v>52</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="34"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="54"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C22" s="35" t="s">
         <v>23</v>
@@ -1792,185 +1810,186 @@
       <c r="J22" s="36"/>
       <c r="K22" s="34"/>
     </row>
-    <row r="23" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B23" s="78">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B24" s="78">
         <v>2</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="38"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="79" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="42"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="31"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="54"/>
-    </row>
-    <row r="25" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
-      <c r="B25" s="78">
+      <c r="C24" s="37"/>
+      <c r="D24" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="80"/>
+      <c r="K24" s="42"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B25" s="31"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="54"/>
+    </row>
+    <row r="26" spans="2:11" ht="20.399999999999999" x14ac:dyDescent="0.2">
+      <c r="B26" s="78">
         <v>3</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="38" t="s">
+      <c r="C26" s="37"/>
+      <c r="D26" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="G25" s="79"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="80" t="s">
+      <c r="E26" s="38"/>
+      <c r="F26" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="79"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K26" s="42">
         <v>42020</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="31"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="54"/>
-    </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="78"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="38" t="s">
+      <c r="B27" s="31"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="54"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B28" s="78"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="38"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="42"/>
-    </row>
-    <row r="28" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="10">
+      <c r="E28" s="38"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="80"/>
+      <c r="K28" s="42"/>
+    </row>
+    <row r="29" spans="2:11" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="10">
         <v>4</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28" t="s">
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K29" s="29">
         <v>42024</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="2:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="85" t="s">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="2:11" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B31" s="12" t="s">
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D31" s="83" t="s">
+      <c r="D32" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="84"/>
-      <c r="F31" s="8" t="s">
+      <c r="E32" s="84"/>
+      <c r="F32" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G32" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="H32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="13">
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="13">
         <v>46</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C33" s="14">
         <v>41953</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G32" s="1"/>
-      <c r="H32" s="16">
-        <v>41956</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
       <c r="D33" s="17" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E33" s="18"/>
       <c r="F33" s="1" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="16">
-        <v>41957</v>
+        <v>41956</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="13"/>
       <c r="C34" s="14"/>
       <c r="D34" s="17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E34" s="18"/>
       <c r="F34" s="1" t="s">
@@ -1982,103 +2001,111 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="13">
-        <v>47</v>
-      </c>
-      <c r="C35" s="14">
-        <v>41960</v>
-      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="1" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="16">
+        <v>41957</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="13">
+        <v>47</v>
+      </c>
+      <c r="C36" s="14">
         <v>41960</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
       <c r="D36" s="17" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="E36" s="18"/>
       <c r="F36" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="16">
-        <v>41960</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="13"/>
       <c r="C37" s="14"/>
       <c r="D37" s="17" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="E37" s="18"/>
       <c r="F37" s="1" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="16">
-        <v>41964</v>
+        <v>41961</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="13"/>
       <c r="C38" s="14"/>
-      <c r="D38" s="17"/>
+      <c r="D38" s="17" t="s">
+        <v>58</v>
+      </c>
       <c r="E38" s="18"/>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="G38" s="1"/>
-      <c r="H38" s="16"/>
+      <c r="H38" s="16">
+        <v>41961</v>
+      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="13">
-        <v>48</v>
-      </c>
-      <c r="C39" s="14">
-        <v>41967</v>
-      </c>
-      <c r="D39" s="17"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="E39" s="18"/>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="G39" s="1"/>
-      <c r="H39" s="4"/>
+      <c r="H39" s="16">
+        <v>41963</v>
+      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="17"/>
+      <c r="D40" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E40" s="18"/>
-      <c r="F40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="4"/>
+      <c r="H40" s="16">
+        <v>41964</v>
+      </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="13">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="14">
-        <v>41974</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>44</v>
-      </c>
+        <v>41967</v>
+      </c>
+      <c r="D41" s="17"/>
       <c r="E41" s="18"/>
-      <c r="F41" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="16">
-        <v>41978</v>
-      </c>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="13"/>
@@ -2091,21 +2118,21 @@
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="13">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="14">
-        <v>41981</v>
+        <v>41974</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E43" s="18"/>
       <c r="F43" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="16">
-        <v>41982</v>
+        <v>41978</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
@@ -2119,66 +2146,72 @@
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="13">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C45" s="14">
-        <v>41988</v>
+        <v>41981</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="16">
-        <v>41992</v>
+        <v>41982</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
-      <c r="D46" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="D46" s="17"/>
       <c r="E46" s="18"/>
-      <c r="F46" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="16">
-        <v>41992</v>
-      </c>
+      <c r="H46" s="4"/>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="13">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="14">
-        <v>41995</v>
-      </c>
-      <c r="D47" s="17"/>
+        <v>41988</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="E47" s="18"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="4"/>
+      <c r="H47" s="16">
+        <v>41992</v>
+      </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
-      <c r="D48" s="17"/>
+      <c r="D48" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="E48" s="18"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="4"/>
+      <c r="H48" s="16">
+        <v>41992</v>
+      </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="13">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="C49" s="14">
-        <v>42002</v>
+        <v>41995</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="18"/>
@@ -2197,10 +2230,10 @@
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C51" s="14">
-        <v>42009</v>
+        <v>42002</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="18"/>
@@ -2219,22 +2252,16 @@
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C53" s="14">
-        <v>42016</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>49</v>
-      </c>
+        <v>42009</v>
+      </c>
+      <c r="D53" s="17"/>
       <c r="E53" s="18"/>
-      <c r="F53" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="16">
-        <v>42020</v>
-      </c>
+      <c r="H53" s="4"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="13"/>
@@ -2246,28 +2273,56 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B55" s="3">
+      <c r="B55" s="13">
+        <v>3</v>
+      </c>
+      <c r="C55" s="14">
+        <v>42016</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E55" s="18"/>
+      <c r="F55" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G55" s="1"/>
+      <c r="H55" s="16">
+        <v>42020</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="4"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B57" s="3">
         <v>4</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C57" s="15">
         <v>42023</v>
       </c>
-      <c r="D55" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G55" s="2"/>
-      <c r="H55" s="82">
+      <c r="D57" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E57" s="20"/>
+      <c r="F57" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="82">
         <v>42023</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B31:H31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
